--- a/web/No.2/designDocuments.xlsx
+++ b/web/No.2/designDocuments.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/okumurahiroki/Documents/practice/web/No.2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{467BE37A-40B6-FC4E-9940-BCA03B8159F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7617C8B9-F9F9-1641-BE1B-C8F110873CF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="16220" activeTab="2" xr2:uid="{53F5E42B-30EA-1040-8A85-DBB737DF7BBC}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" activeTab="3" xr2:uid="{53F5E42B-30EA-1040-8A85-DBB737DF7BBC}"/>
   </bookViews>
   <sheets>
     <sheet name="情報整理" sheetId="1" r:id="rId1"/>
     <sheet name="掲載内容" sheetId="2" r:id="rId2"/>
     <sheet name="サイトマップ" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
   <si>
     <t>・彼女の誕生日用サイト</t>
     <rPh sb="1" eb="3">
@@ -367,6 +368,235 @@
     <rPh sb="24" eb="26">
       <t>シャシn</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●トップページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・彼女の誕生日を祝うことを示す画像</t>
+    <rPh sb="1" eb="3">
+      <t>カノジヨ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>タンジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>イワウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>シメス</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・写真、プレゼント、メッセージへの誘導</t>
+    <rPh sb="1" eb="3">
+      <t>シャシn</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ユウドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●製作者情報</t>
+    <rPh sb="1" eb="4">
+      <t>セイサクセィア</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・製作者概要（氏名、写真、経歴）</t>
+    <rPh sb="1" eb="4">
+      <t>セイサクセィ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シャシn</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケイレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・サイト説明</t>
+    <rPh sb="4" eb="6">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●当サイト情報</t>
+    <rPh sb="1" eb="2">
+      <t xml:space="preserve">トウ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・トップページ掲載予定イラストへの感想</t>
+    <rPh sb="7" eb="11">
+      <t>ケイサイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カンソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・サイト作成の感想</t>
+    <rPh sb="7" eb="9">
+      <t>カンソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ページ説明</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・写真、感想</t>
+    <rPh sb="1" eb="3">
+      <t>シャシn</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●今年のプレゼント</t>
+    <rPh sb="1" eb="3">
+      <t>コトセィ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●これから</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●これまで（印象に残っている写真）</t>
+    <rPh sb="6" eb="8">
+      <t>インショウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ノコッテ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シャシn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>outher</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>thisSite</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>past</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>presents</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>future</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共通</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページ用</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>製作者情報</t>
+    <rPh sb="0" eb="3">
+      <t>セイサクシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当サイト情報</t>
+    <rPh sb="0" eb="1">
+      <t>トウサイト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これまで</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレゼント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓ホームがない</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -430,6 +660,2163 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B29B97E9-AFCB-7A4A-83AD-CAB49F68FD0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9842500" y="533400"/>
+          <a:ext cx="1778000" cy="698500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
+            <a:t>ホーム</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEB8ADB4-7A78-F74E-AD6C-7099E7902A56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5359400" y="2044700"/>
+          <a:ext cx="1778000" cy="698500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
+            <a:t>製作者情報</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B35C7AC2-06EA-E048-867B-4161DCC743B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7594600" y="2032000"/>
+          <a:ext cx="1778000" cy="698500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
+            <a:t>当サイト情報</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31F35287-998D-8044-9581-48B994A0E7D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9842500" y="2032000"/>
+          <a:ext cx="1778000" cy="698500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
+            <a:t>これまで</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD9BE9E4-A6AD-284D-9732-9FFED3BE9AA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12128500" y="2019300"/>
+          <a:ext cx="1778000" cy="698500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
+            <a:t>プレゼント</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E244717B-0FDA-3745-8BDE-4FB5FD095A3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14427200" y="2032000"/>
+          <a:ext cx="1778000" cy="698500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
+            <a:t>これから</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{715C3737-752B-F84E-BD35-1E60473973E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="3327400"/>
+          <a:ext cx="1397000" cy="698500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
+            <a:t>製作者概要</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEBCF049-D8A1-DC48-AB7C-EB518D2C51FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5511800" y="4292600"/>
+          <a:ext cx="1397000" cy="698500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+            <a:t>製作者</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+            <a:t>メッセージ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02B43676-DFAA-C548-9FC8-70FC637A70EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7797800" y="3289300"/>
+          <a:ext cx="1397000" cy="698500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
+            <a:t>サイト説明</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF11BB81-524C-D746-BB71-2EA4B5DB988C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7785100" y="4330700"/>
+          <a:ext cx="1397000" cy="698500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+            <a:t>イラスト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+            <a:t>感想</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7244B072-A2B1-024F-AC44-CDCBF57D35F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7785100" y="5346700"/>
+          <a:ext cx="1397000" cy="698500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
+            <a:t>サイト感想</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA16B285-C727-224C-A708-E75F40AE12A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10058400" y="3289300"/>
+          <a:ext cx="1397000" cy="698500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
+            <a:t>ページ説明</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EAA9572-5CAF-7C43-9799-CCA6F217F294}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10071100" y="4305300"/>
+          <a:ext cx="1397000" cy="698500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
+            <a:t>写真、感想</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D18EB0FA-FC70-9C45-B818-48631E626E27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12344400" y="3302000"/>
+          <a:ext cx="1397000" cy="698500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
+            <a:t>写真、感想</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA791F55-410C-A345-B497-8D78CF37924C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14643100" y="4343400"/>
+          <a:ext cx="1397000" cy="698500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
+            <a:t>写真、感想</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A235490-9C57-3243-A51E-7B8B92711D11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14630400" y="3302000"/>
+          <a:ext cx="1397000" cy="698500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
+            <a:t>ページ説明</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="カギ線コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09C4FD18-9C41-CB4A-BD0E-4BA54A0C107C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="9" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5629275" y="3362325"/>
+          <a:ext cx="1898650" cy="660400"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 17392"/>
+            <a:gd name="adj2" fmla="val 169231"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="カギ線コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDCFDE4B-08BB-E940-9175-EF36BDC8DE24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="12" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="7350125" y="3863975"/>
+          <a:ext cx="2965450" cy="698500"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 11563"/>
+            <a:gd name="adj2" fmla="val 160000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="カギ線コネクタ 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FFBAEFF-0D41-EB4F-961E-856858CFA656}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="14" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="10137775" y="3324225"/>
+          <a:ext cx="1924050" cy="736600"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18482"/>
+            <a:gd name="adj2" fmla="val 151724"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="カギ線コネクタ 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07A8A21D-A831-A540-BA27-39414E446A19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="15" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="12912725" y="2822575"/>
+          <a:ext cx="933450" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 36735"/>
+            <a:gd name="adj2" fmla="val 154386"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="カギ線コネクタ 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4E625ED-37AC-5A40-962A-0EEF73CBFA19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="16" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="14697075" y="3349625"/>
+          <a:ext cx="1962150" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 17799"/>
+            <a:gd name="adj2" fmla="val 154386"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="カギ線コネクタ 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4EE1726-CF67-814D-909A-F5D14518FBC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="8083550" y="-603250"/>
+          <a:ext cx="812800" cy="4483100"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 40625"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="カギ線コネクタ 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FA6DB2F-5920-974D-A302-DD76F172F15C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="9207500" y="508000"/>
+          <a:ext cx="800100" cy="2247900"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 42063"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="カギ線コネクタ 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{098DF41A-DCE7-2945-8B02-03D5B39FEC33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="10331450" y="1631950"/>
+          <a:ext cx="800100" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="カギ線コネクタ 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17C18EA3-C14E-8846-BCAA-AAA2ABB2F788}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="11480800" y="482600"/>
+          <a:ext cx="787400" cy="2286000"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 43548"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="カギ線コネクタ 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA3199F3-2CB5-2A49-92C8-C59454D28AAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="12623800" y="-660400"/>
+          <a:ext cx="800100" cy="4584700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 42063"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="直線コネクタ 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C39857D9-A900-6C46-94AE-5D0117D9DFDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6883400" y="3676650"/>
+          <a:ext cx="495300" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="直線コネクタ 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F765D21D-0CC5-EF4C-BAD9-C21DB38505DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9118600" y="3613150"/>
+          <a:ext cx="495300" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="直線コネクタ 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B06B4133-C76E-2042-B33B-0E4D0C7510C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9118600" y="4603750"/>
+          <a:ext cx="495300" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="直線コネクタ 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0BE5FD1-F3D8-7F4B-AAA1-4F8823FC4CFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11353800" y="3638550"/>
+          <a:ext cx="495300" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="直線コネクタ 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5D5C5EE-E272-1C47-B7F4-4B8EA6D815B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15925800" y="3625850"/>
+          <a:ext cx="495300" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77C6FE86-20EE-2941-89C9-356E4AE0EE1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="508000"/>
+          <a:ext cx="5372100" cy="6540500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="円/楕円 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1712DD1D-9BC7-FD48-AF81-51DBCE5CF1FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9182100" y="1574800"/>
+          <a:ext cx="3276600" cy="3276600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200" b="1">
+              <a:latin typeface="Hiragino Kaku Gothic Pro W3" panose="020B0300000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Hiragino Kaku Gothic Pro W3" panose="020B0300000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>これまで</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000" b="1">
+            <a:latin typeface="Hiragino Kaku Gothic Pro W3" panose="020B0300000000000000" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Hiragino Kaku Gothic Pro W3" panose="020B0300000000000000" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="円/楕円 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7054F205-58A2-A54C-AFB0-006C24AC4B74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12103100" y="3683000"/>
+          <a:ext cx="3276600" cy="3276600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200" b="1">
+              <a:latin typeface="Hiragino Kaku Gothic Pro W3" panose="020B0300000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Hiragino Kaku Gothic Pro W3" panose="020B0300000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>プレゼント</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="円/楕円 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8901A9B-4E45-DB43-B649-DA2CE485B625}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13703300" y="520700"/>
+          <a:ext cx="3276600" cy="3276600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200" b="1">
+              <a:latin typeface="Hiragino Kaku Gothic Pro W3" panose="020B0300000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Hiragino Kaku Gothic Pro W3" panose="020B0300000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>これから</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -973,13 +3360,251 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B245BD-9DDC-F044-AACE-1DB9F6F125E3}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.5703125" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="K29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="D30" t="s">
+        <v>57</v>
+      </c>
+      <c r="K30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="D31" t="s">
+        <v>58</v>
+      </c>
+      <c r="K31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="D32" t="s">
+        <v>59</v>
+      </c>
+      <c r="K32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="D33" t="s">
+        <v>60</v>
+      </c>
+      <c r="K33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="D34" t="s">
+        <v>61</v>
+      </c>
+      <c r="K34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="D35" t="s">
+        <v>62</v>
+      </c>
+      <c r="K35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="D36" t="s">
+        <v>63</v>
+      </c>
+      <c r="K36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="B38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="B40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="B42" t="s">
+        <v>59</v>
+      </c>
+      <c r="K42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="B44" t="s">
+        <v>60</v>
+      </c>
+      <c r="K44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="B46" t="s">
+        <v>61</v>
+      </c>
+      <c r="K46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48" t="s">
+        <v>62</v>
+      </c>
+      <c r="K48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="B50" t="s">
+        <v>63</v>
+      </c>
+      <c r="K50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BB0D5F-2125-D743-9E96-50B30FAF56EC}">
+  <dimension ref="B2:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>